--- a/na-service/src/main/resources/data/lang/Languages.xlsx
+++ b/na-service/src/main/resources/data/lang/Languages.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>en</t>
   </si>
@@ -35,13 +35,22 @@
   </si>
   <si>
     <t>українська</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>german</t>
+  </si>
+  <si>
+    <t>deutsch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -51,7 +60,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,14 +75,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -297,10 +302,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -322,8 +327,19 @@
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
